--- a/face_clustering/results_dbscan_parameters.xlsx
+++ b/face_clustering/results_dbscan_parameters.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20223105\Documents\Data Science\year 3\BEP\BEP\face_clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBE6552-8DCD-47DC-AC9D-17812923E2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1164E5-DB49-47E2-85E6-CC76ED850AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>params</t>
   </si>
@@ -43,13 +56,13 @@
     <t>eps</t>
   </si>
   <si>
-    <t>min_samples</t>
-  </si>
-  <si>
     <t>ARI</t>
   </si>
   <si>
     <t>FMI</t>
+  </si>
+  <si>
+    <t>rel</t>
   </si>
 </sst>
 </file>
@@ -113,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -122,7 +135,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,42 +437,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -475,16 +491,16 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>8</v>
@@ -493,13 +509,25 @@
         <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -507,13 +535,13 @@
         <v>0.1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D4">
-        <v>3.0000000000000001E-3</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="E4">
-        <v>4.1000000000000002E-2</v>
+        <v>1611</v>
       </c>
       <c r="F4">
         <v>3.0000000000000001E-3</v>
@@ -522,25 +550,37 @@
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="H4">
+        <v>1634</v>
+      </c>
+      <c r="I4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <v>1588</v>
+      </c>
+      <c r="L4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L4">
+      <c r="N4">
+        <v>1602</v>
+      </c>
+      <c r="O4">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q4">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -548,13 +588,13 @@
         <v>0.2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D5">
-        <v>6.0000000000000001E-3</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="E5">
-        <v>5.7000000000000002E-2</v>
+        <v>1479</v>
       </c>
       <c r="F5">
         <v>5.0000000000000001E-3</v>
@@ -563,25 +603,37 @@
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="H5">
+        <v>1523</v>
+      </c>
+      <c r="I5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>6.2E-2</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <v>1443</v>
+      </c>
+      <c r="L5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>6.2E-2</v>
       </c>
-      <c r="L5">
+      <c r="N5">
+        <v>1437</v>
+      </c>
+      <c r="O5">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>5.8000000000000003E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q5">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -589,13 +641,13 @@
         <v>0.3</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="D6">
-        <v>8.9999999999999993E-3</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6">
-        <v>7.0000000000000007E-2</v>
+        <v>1347</v>
       </c>
       <c r="F6">
         <v>8.0000000000000002E-3</v>
@@ -604,25 +656,37 @@
         <v>6.3E-2</v>
       </c>
       <c r="H6">
+        <v>1407</v>
+      </c>
+      <c r="I6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <v>1291</v>
+      </c>
+      <c r="L6">
         <v>1.2E-2</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>7.8E-2</v>
       </c>
-      <c r="L6">
+      <c r="N6">
+        <v>1291</v>
+      </c>
+      <c r="O6">
         <v>0.01</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>7.0999999999999994E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q6">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -630,13 +694,13 @@
         <v>0.4</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="D7">
-        <v>1.4999999999999999E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="E7">
-        <v>8.6999999999999994E-2</v>
+        <v>1188</v>
       </c>
       <c r="F7">
         <v>1.2E-2</v>
@@ -645,25 +709,37 @@
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="H7">
+        <v>1256</v>
+      </c>
+      <c r="I7">
         <v>0.02</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.10100000000000001</v>
       </c>
-      <c r="J7">
+      <c r="K7">
+        <v>1087</v>
+      </c>
+      <c r="L7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="L7">
+      <c r="N7">
+        <v>1133</v>
+      </c>
+      <c r="O7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>8.6999999999999994E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q7">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -671,13 +747,13 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D8">
-        <v>2.4E-2</v>
+        <v>0.109</v>
       </c>
       <c r="E8">
-        <v>0.109</v>
+        <v>1000</v>
       </c>
       <c r="F8">
         <v>1.9E-2</v>
@@ -686,25 +762,37 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H8">
+        <v>1105</v>
+      </c>
+      <c r="I8">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.14699999999999999</v>
       </c>
-      <c r="J8">
+      <c r="K8">
+        <v>867</v>
+      </c>
+      <c r="L8">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>0.123</v>
       </c>
-      <c r="L8">
+      <c r="N8">
+        <v>956</v>
+      </c>
+      <c r="O8">
         <v>2.3E-2</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>0.109</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q8">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -712,13 +800,13 @@
         <v>0.6</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="D9">
-        <v>4.5999999999999999E-2</v>
+        <v>0.15</v>
       </c>
       <c r="E9">
-        <v>0.15</v>
+        <v>810</v>
       </c>
       <c r="F9">
         <v>3.5999999999999997E-2</v>
@@ -727,25 +815,37 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="H9">
+        <v>920</v>
+      </c>
+      <c r="I9">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.21299999999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
+        <v>673</v>
+      </c>
+      <c r="L9">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>0.17399999999999999</v>
       </c>
-      <c r="L9">
+      <c r="N9">
+        <v>754</v>
+      </c>
+      <c r="O9">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -753,13 +853,13 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="D10">
-        <v>9.9000000000000005E-2</v>
+        <v>0.222</v>
       </c>
       <c r="E10">
-        <v>0.222</v>
+        <v>618</v>
       </c>
       <c r="F10">
         <v>7.4999999999999997E-2</v>
@@ -768,25 +868,37 @@
         <v>0.19700000000000001</v>
       </c>
       <c r="H10">
+        <v>732</v>
+      </c>
+      <c r="I10">
         <v>0.14399999999999999</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.28199999999999997</v>
       </c>
-      <c r="J10">
+      <c r="K10">
+        <v>522</v>
+      </c>
+      <c r="L10">
         <v>0.155</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>0.29699999999999999</v>
       </c>
-      <c r="L10">
+      <c r="N10">
+        <v>548</v>
+      </c>
+      <c r="O10">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>0.17599999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -794,13 +906,13 @@
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.219</v>
       </c>
       <c r="D11">
-        <v>0.219</v>
+        <v>0.35</v>
       </c>
       <c r="E11">
-        <v>0.35</v>
+        <v>445</v>
       </c>
       <c r="F11">
         <v>0.16300000000000001</v>
@@ -809,25 +921,37 @@
         <v>0.3</v>
       </c>
       <c r="H11">
+        <v>558</v>
+      </c>
+      <c r="I11">
         <v>0.314</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.433</v>
       </c>
-      <c r="J11">
+      <c r="K11">
+        <v>379</v>
+      </c>
+      <c r="L11">
         <v>0.36199999999999999</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>0.48099999999999998</v>
       </c>
-      <c r="L11">
+      <c r="N11">
+        <v>365</v>
+      </c>
+      <c r="O11">
         <v>0.13600000000000001</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>0.27100000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -835,13 +959,13 @@
         <v>0.9</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.376</v>
       </c>
       <c r="D12">
-        <v>0.376</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="E12">
-        <v>0.48099999999999998</v>
+        <v>314</v>
       </c>
       <c r="F12">
         <v>0.28199999999999997</v>
@@ -850,25 +974,37 @@
         <v>0.41099999999999998</v>
       </c>
       <c r="H12">
+        <v>433</v>
+      </c>
+      <c r="I12">
         <v>0.443</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.53600000000000003</v>
       </c>
-      <c r="J12">
+      <c r="K12">
+        <v>275</v>
+      </c>
+      <c r="L12">
         <v>0.55600000000000005</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>0.63200000000000001</v>
       </c>
-      <c r="L12">
+      <c r="N12">
+        <v>248</v>
+      </c>
+      <c r="O12">
         <v>0.25</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>0.376</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -876,13 +1012,13 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.52300000000000002</v>
       </c>
       <c r="D13">
-        <v>0.52300000000000002</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="E13">
-        <v>0.59799999999999998</v>
+        <v>238</v>
       </c>
       <c r="F13">
         <v>0.42299999999999999</v>
@@ -891,25 +1027,37 @@
         <v>0.52400000000000002</v>
       </c>
       <c r="H13">
+        <v>338</v>
+      </c>
+      <c r="I13">
         <v>0.55800000000000005</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.628</v>
       </c>
-      <c r="J13">
+      <c r="K13">
+        <v>208</v>
+      </c>
+      <c r="L13">
         <v>0.65200000000000002</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>0.70599999999999996</v>
       </c>
-      <c r="L13">
+      <c r="N13">
+        <v>184</v>
+      </c>
+      <c r="O13">
         <v>0.39200000000000002</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>0.497</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -917,13 +1065,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="D14">
-        <v>0.67600000000000005</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E14">
-        <v>0.71899999999999997</v>
+        <v>156</v>
       </c>
       <c r="F14">
         <v>0.52700000000000002</v>
@@ -932,25 +1080,37 @@
         <v>0.60499999999999998</v>
       </c>
       <c r="H14">
+        <v>266</v>
+      </c>
+      <c r="I14">
         <v>0.625</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.68</v>
       </c>
-      <c r="J14">
+      <c r="K14">
+        <v>167</v>
+      </c>
+      <c r="L14">
         <v>0.72499999999999998</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>0.76300000000000001</v>
       </c>
-      <c r="L14">
+      <c r="N14">
+        <v>130</v>
+      </c>
+      <c r="O14">
         <v>0.50900000000000001</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -958,13 +1118,13 @@
         <v>1.2</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="D15">
-        <v>0.72799999999999998</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="E15">
-        <v>0.76100000000000001</v>
+        <v>118</v>
       </c>
       <c r="F15">
         <v>0.63500000000000001</v>
@@ -973,25 +1133,37 @@
         <v>0.68799999999999994</v>
       </c>
       <c r="H15">
+        <v>196</v>
+      </c>
+      <c r="I15">
         <v>0.69699999999999995</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.73699999999999999</v>
       </c>
-      <c r="J15">
+      <c r="K15">
+        <v>125</v>
+      </c>
+      <c r="L15">
         <v>0.78400000000000003</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>0.81</v>
       </c>
-      <c r="L15">
+      <c r="N15">
+        <v>91</v>
+      </c>
+      <c r="O15">
         <v>0.57099999999999995</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>0.63800000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -999,13 +1171,13 @@
         <v>1.3</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.755</v>
       </c>
       <c r="D16">
-        <v>0.755</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="E16">
-        <v>0.78300000000000003</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>0.69699999999999995</v>
@@ -1014,25 +1186,37 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="H16">
+        <v>155</v>
+      </c>
+      <c r="I16">
         <v>0.73399999999999999</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.76700000000000002</v>
       </c>
-      <c r="J16">
+      <c r="K16">
+        <v>95</v>
+      </c>
+      <c r="L16">
         <v>0.81799999999999995</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>0.83799999999999997</v>
       </c>
-      <c r="L16">
+      <c r="N16">
+        <v>65</v>
+      </c>
+      <c r="O16">
         <v>0.66200000000000003</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>0.71</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1040,13 +1224,13 @@
         <v>1.4</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="D17">
-        <v>0.77600000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="E17">
-        <v>0.8</v>
+        <v>63</v>
       </c>
       <c r="F17">
         <v>0.74099999999999999</v>
@@ -1055,25 +1239,37 @@
         <v>0.77200000000000002</v>
       </c>
       <c r="H17">
+        <v>125</v>
+      </c>
+      <c r="I17">
         <v>0.76</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.78800000000000003</v>
       </c>
-      <c r="J17">
+      <c r="K17">
+        <v>79</v>
+      </c>
+      <c r="L17">
         <v>0.84499999999999997</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>0.86099999999999999</v>
       </c>
-      <c r="L17">
+      <c r="N17">
+        <v>52</v>
+      </c>
+      <c r="O17">
         <v>0.71899999999999997</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>0.755</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1081,13 +1277,13 @@
         <v>1.5</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="D18">
-        <v>0.80500000000000005</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E18">
-        <v>0.82499999999999996</v>
+        <v>53</v>
       </c>
       <c r="F18">
         <v>0.76900000000000002</v>
@@ -1096,25 +1292,37 @@
         <v>0.79500000000000004</v>
       </c>
       <c r="H18">
+        <v>103</v>
+      </c>
+      <c r="I18">
         <v>0.79700000000000004</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.81899999999999995</v>
       </c>
-      <c r="J18">
+      <c r="K18">
+        <v>63</v>
+      </c>
+      <c r="L18">
         <v>0.86299999999999999</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>0.877</v>
       </c>
-      <c r="L18">
+      <c r="N18">
+        <v>42</v>
+      </c>
+      <c r="O18">
         <v>0.76300000000000001</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>0.79100000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1122,13 +1330,13 @@
         <v>1.6</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="D19">
-        <v>0.82199999999999995</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="E19">
-        <v>0.83899999999999997</v>
+        <v>42</v>
       </c>
       <c r="F19">
         <v>0.78800000000000003</v>
@@ -1137,39 +1345,51 @@
         <v>0.81</v>
       </c>
       <c r="H19">
+        <v>89</v>
+      </c>
+      <c r="I19">
         <v>0.82</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.83799999999999997</v>
       </c>
-      <c r="J19">
+      <c r="K19">
+        <v>52</v>
+      </c>
+      <c r="L19">
         <v>0.88700000000000001</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>0.89800000000000002</v>
       </c>
-      <c r="L19">
+      <c r="N19">
+        <v>37</v>
+      </c>
+      <c r="O19">
         <v>0.83</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>0.84699999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20">
         <v>1.7</v>
       </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="C20" s="3">
+        <v>0.86799999999999999</v>
       </c>
       <c r="D20" s="3">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="E20" s="3">
         <v>0.879</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
       </c>
       <c r="F20">
         <v>0.80100000000000005</v>
@@ -1178,25 +1398,37 @@
         <v>0.82099999999999995</v>
       </c>
       <c r="H20">
+        <v>77</v>
+      </c>
+      <c r="I20">
         <v>0.85</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.86399999999999999</v>
       </c>
-      <c r="J20">
+      <c r="K20">
+        <v>42</v>
+      </c>
+      <c r="L20">
         <v>0.89300000000000002</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>0.90200000000000002</v>
       </c>
-      <c r="L20">
+      <c r="N20">
+        <v>31</v>
+      </c>
+      <c r="O20">
         <v>0.85199999999999998</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>0.86499999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1204,13 +1436,13 @@
         <v>1.8</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="D21">
-        <v>0.86399999999999999</v>
+        <v>0.873</v>
       </c>
       <c r="E21">
-        <v>0.873</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>0.80700000000000005</v>
@@ -1219,25 +1451,37 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="H21">
+        <v>67</v>
+      </c>
+      <c r="I21">
         <v>0.86</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.872</v>
       </c>
-      <c r="J21">
+      <c r="K21">
+        <v>33</v>
+      </c>
+      <c r="L21">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>0.91200000000000003</v>
       </c>
-      <c r="L21">
+      <c r="N21">
+        <v>24</v>
+      </c>
+      <c r="O21">
         <v>0.872</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>0.88300000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1245,13 +1489,13 @@
         <v>1.9</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="D22">
-        <v>0.80200000000000005</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="E22">
-        <v>0.81499999999999995</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>0.80900000000000005</v>
@@ -1260,25 +1504,37 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="H22">
+        <v>60</v>
+      </c>
+      <c r="I22">
         <v>0.872</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.88200000000000001</v>
       </c>
-      <c r="J22">
+      <c r="K22">
+        <v>29</v>
+      </c>
+      <c r="L22">
         <v>0.91</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>0.91700000000000004</v>
       </c>
-      <c r="L22">
+      <c r="N22">
+        <v>17</v>
+      </c>
+      <c r="O22">
         <v>0.89300000000000002</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>0.90200000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1286,13 +1542,13 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="D23">
-        <v>0.80400000000000005</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="E23">
-        <v>0.81699999999999995</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>0.81299999999999994</v>
@@ -1301,25 +1557,37 @@
         <v>0.83099999999999996</v>
       </c>
       <c r="H23">
+        <v>54</v>
+      </c>
+      <c r="I23">
         <v>0.88700000000000001</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.89500000000000002</v>
       </c>
-      <c r="J23">
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
         <v>0.92600000000000005</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>0.93200000000000005</v>
       </c>
-      <c r="L23">
+      <c r="N23">
+        <v>11</v>
+      </c>
+      <c r="O23">
         <v>0.90300000000000002</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>0.91100000000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1327,13 +1595,13 @@
         <v>2.1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="D24">
-        <v>0.80400000000000005</v>
+        <v>0.81699999999999995</v>
       </c>
       <c r="E24">
-        <v>0.81699999999999995</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>0.81899999999999995</v>
@@ -1342,25 +1610,37 @@
         <v>0.83499999999999996</v>
       </c>
       <c r="H24">
+        <v>46</v>
+      </c>
+      <c r="I24">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.89900000000000002</v>
       </c>
-      <c r="J24">
+      <c r="K24">
+        <v>16</v>
+      </c>
+      <c r="L24">
         <v>0.93799999999999994</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>0.94299999999999995</v>
       </c>
-      <c r="L24">
+      <c r="N24">
+        <v>8</v>
+      </c>
+      <c r="O24">
         <v>0.91300000000000003</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>0.91900000000000004</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>21</v>
       </c>
@@ -1368,13 +1648,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="D25">
-        <v>0.80700000000000005</v>
+        <v>0.82</v>
       </c>
       <c r="E25">
-        <v>0.82</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>0.83</v>
@@ -1383,25 +1663,37 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="H25">
+        <v>40</v>
+      </c>
+      <c r="I25">
         <v>0.89400000000000002</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.90200000000000002</v>
       </c>
-      <c r="J25">
+      <c r="K25">
+        <v>14</v>
+      </c>
+      <c r="L25">
         <v>0.94099999999999995</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>0.94499999999999995</v>
       </c>
-      <c r="L25">
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
         <v>0.91300000000000003</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>0.91900000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>22</v>
       </c>
@@ -1409,13 +1701,13 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="D26">
-        <v>0.80900000000000005</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="E26">
-        <v>0.82199999999999995</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>0.82899999999999996</v>
@@ -1424,25 +1716,37 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="H26">
+        <v>34</v>
+      </c>
+      <c r="I26">
         <v>0.89300000000000002</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.90100000000000002</v>
       </c>
-      <c r="J26">
+      <c r="K26">
+        <v>13</v>
+      </c>
+      <c r="L26">
         <v>0.94099999999999995</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>0.94499999999999995</v>
       </c>
-      <c r="L26">
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
         <v>0.91400000000000003</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>0.92</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -1450,13 +1754,13 @@
         <v>2.4</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D27">
-        <v>0.81100000000000005</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="E27">
-        <v>0.82399999999999995</v>
+        <v>8</v>
       </c>
       <c r="F27" s="3">
         <v>0.84699999999999998</v>
@@ -1465,25 +1769,37 @@
         <v>0.85899999999999999</v>
       </c>
       <c r="H27">
+        <v>27</v>
+      </c>
+      <c r="I27">
         <v>0.89300000000000002</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.90100000000000002</v>
       </c>
-      <c r="J27">
+      <c r="K27">
+        <v>13</v>
+      </c>
+      <c r="L27">
         <v>0.94199999999999995</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>0.94599999999999995</v>
       </c>
-      <c r="L27">
+      <c r="N27">
+        <v>6</v>
+      </c>
+      <c r="O27">
         <v>0.91800000000000004</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>0.92400000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>24</v>
       </c>
@@ -1491,13 +1807,13 @@
         <v>2.5</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="D28">
-        <v>0.81200000000000006</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E28">
-        <v>0.82499999999999996</v>
+        <v>7</v>
       </c>
       <c r="F28">
         <v>0.81399999999999995</v>
@@ -1506,25 +1822,37 @@
         <v>0.82499999999999996</v>
       </c>
       <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28">
         <v>0.90200000000000002</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.90900000000000003</v>
       </c>
-      <c r="J28">
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
         <v>0.94199999999999995</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>0.94599999999999995</v>
       </c>
-      <c r="L28">
+      <c r="N28">
+        <v>6</v>
+      </c>
+      <c r="O28">
         <v>0.92100000000000004</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>0.92700000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -1532,13 +1860,13 @@
         <v>2.6</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="D29">
-        <v>0.81</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E29">
-        <v>0.82299999999999995</v>
+        <v>5</v>
       </c>
       <c r="F29">
         <v>0.81299999999999994</v>
@@ -1547,25 +1875,37 @@
         <v>0.82399999999999995</v>
       </c>
       <c r="H29">
+        <v>17</v>
+      </c>
+      <c r="I29">
         <v>0.90500000000000003</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.91200000000000003</v>
       </c>
-      <c r="J29">
+      <c r="K29">
+        <v>8</v>
+      </c>
+      <c r="L29">
         <v>0.94699999999999995</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>0.95099999999999996</v>
       </c>
-      <c r="L29">
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
         <v>0.92600000000000005</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>0.93100000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>26</v>
       </c>
@@ -1573,13 +1913,13 @@
         <v>2.7</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="D30">
-        <v>0.81</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E30">
-        <v>0.82299999999999995</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>0.77400000000000002</v>
@@ -1588,25 +1928,37 @@
         <v>0.78900000000000003</v>
       </c>
       <c r="H30">
+        <v>14</v>
+      </c>
+      <c r="I30">
         <v>0.90700000000000003</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.91300000000000003</v>
       </c>
-      <c r="J30">
+      <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="L30">
         <v>0.94699999999999995</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>0.95</v>
       </c>
-      <c r="L30">
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
         <v>0.92800000000000005</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>27</v>
       </c>
@@ -1614,13 +1966,13 @@
         <v>2.8</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="D31">
-        <v>0.81</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E31">
-        <v>0.82299999999999995</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>0.72</v>
@@ -1629,25 +1981,37 @@
         <v>0.74299999999999999</v>
       </c>
       <c r="H31">
+        <v>13</v>
+      </c>
+      <c r="I31">
         <v>0.90900000000000003</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.91500000000000004</v>
       </c>
-      <c r="J31">
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
         <v>0.94899999999999995</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>0.95199999999999996</v>
       </c>
-      <c r="L31">
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
         <v>0.92800000000000005</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>0.93300000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>28</v>
       </c>
@@ -1655,13 +2019,13 @@
         <v>2.9</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="D32">
-        <v>0.81</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E32">
-        <v>0.82299999999999995</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>0.72199999999999998</v>
@@ -1670,25 +2034,37 @@
         <v>0.745</v>
       </c>
       <c r="H32">
+        <v>12</v>
+      </c>
+      <c r="I32">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J32">
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
         <v>0.94899999999999995</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>0.95199999999999996</v>
       </c>
-      <c r="L32">
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
         <v>0.93200000000000005</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>0.93700000000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>29</v>
       </c>
@@ -1696,13 +2072,13 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0.81</v>
       </c>
       <c r="D33">
-        <v>0.81</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="E33">
-        <v>0.82299999999999995</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>0.72399999999999998</v>
@@ -1711,25 +2087,37 @@
         <v>0.749</v>
       </c>
       <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J33">
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
         <v>0.94899999999999995</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>0.95199999999999996</v>
       </c>
-      <c r="L33">
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33">
         <v>0.93400000000000005</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>0.93899999999999995</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>30</v>
       </c>
@@ -1737,13 +2125,13 @@
         <v>3.1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D34">
-        <v>0.81100000000000005</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E34">
-        <v>0.82499999999999996</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>0.72399999999999998</v>
@@ -1752,25 +2140,37 @@
         <v>0.749</v>
       </c>
       <c r="H34">
+        <v>5</v>
+      </c>
+      <c r="I34">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J34" s="3">
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34" s="3">
         <v>0.95</v>
       </c>
-      <c r="K34" s="3">
+      <c r="M34" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L34" s="3">
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M34" s="3">
+      <c r="P34" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>31</v>
       </c>
@@ -1778,13 +2178,13 @@
         <v>3.2</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D35">
-        <v>0.81100000000000005</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E35">
-        <v>0.82499999999999996</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>0.72399999999999998</v>
@@ -1793,25 +2193,37 @@
         <v>0.749</v>
       </c>
       <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35">
         <v>0.92100000000000004</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35">
+        <v>4</v>
+      </c>
+      <c r="L35" s="3">
         <v>0.95</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>32</v>
       </c>
@@ -1819,13 +2231,13 @@
         <v>3.3</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D36">
-        <v>0.81100000000000005</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E36">
-        <v>0.82499999999999996</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>0.72299999999999998</v>
@@ -1834,25 +2246,37 @@
         <v>0.748</v>
       </c>
       <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
         <v>0.92100000000000004</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J36" s="3">
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36" s="3">
         <v>0.95</v>
       </c>
-      <c r="K36" s="3">
+      <c r="M36" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L36" s="3">
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M36" s="3">
+      <c r="P36" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>33</v>
       </c>
@@ -1860,13 +2284,13 @@
         <v>3.4</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D37">
-        <v>0.81100000000000005</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E37">
-        <v>0.82499999999999996</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>0.72299999999999998</v>
@@ -1875,25 +2299,37 @@
         <v>0.748</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>0.92100000000000004</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J37" s="3">
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37" s="3">
         <v>0.95</v>
       </c>
-      <c r="K37" s="3">
+      <c r="M37" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L37" s="3">
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M37" s="3">
+      <c r="P37" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>34</v>
       </c>
@@ -1901,13 +2337,13 @@
         <v>3.5</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="D38">
-        <v>0.81100000000000005</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="E38">
-        <v>0.82499999999999996</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>0.69799999999999995</v>
@@ -1916,25 +2352,37 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
         <v>0.92100000000000004</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J38" s="3">
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38" s="3">
         <v>0.95</v>
       </c>
-      <c r="K38" s="3">
+      <c r="M38" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L38" s="3">
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M38" s="3">
+      <c r="P38" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -1942,13 +2390,13 @@
         <v>3.6</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="D39">
-        <v>0.81399999999999995</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="E39">
-        <v>0.82699999999999996</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>0.69799999999999995</v>
@@ -1957,25 +2405,37 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
         <v>0.92100000000000004</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39" s="3">
         <v>0.95</v>
       </c>
-      <c r="K39" s="3">
+      <c r="M39" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L39" s="3">
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M39" s="3">
+      <c r="P39" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>36</v>
       </c>
@@ -1983,13 +2443,13 @@
         <v>3.7</v>
       </c>
       <c r="C40">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D40">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E40">
         <v>1</v>
-      </c>
-      <c r="D40">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E40">
-        <v>0.82599999999999996</v>
       </c>
       <c r="F40">
         <v>0.67300000000000004</v>
@@ -1998,25 +2458,37 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>0.92100000000000004</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J40" s="3">
+      <c r="K40">
+        <v>4</v>
+      </c>
+      <c r="L40" s="3">
         <v>0.95</v>
       </c>
-      <c r="K40" s="3">
+      <c r="M40" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L40" s="3">
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M40" s="3">
+      <c r="P40" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>37</v>
       </c>
@@ -2024,13 +2496,13 @@
         <v>3.8</v>
       </c>
       <c r="C41">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D41">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E41">
         <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E41">
-        <v>0.82599999999999996</v>
       </c>
       <c r="F41">
         <v>0.67300000000000004</v>
@@ -2039,25 +2511,37 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>0.92100000000000004</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
         <v>0.95</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>38</v>
       </c>
@@ -2065,13 +2549,13 @@
         <v>3.9</v>
       </c>
       <c r="C42">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D42">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E42">
         <v>1</v>
-      </c>
-      <c r="D42">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E42">
-        <v>0.82599999999999996</v>
       </c>
       <c r="F42">
         <v>0.67300000000000004</v>
@@ -2080,25 +2564,37 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
         <v>0.95</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>39</v>
       </c>
@@ -2106,13 +2602,13 @@
         <v>4</v>
       </c>
       <c r="C43">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D43">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E43">
         <v>1</v>
-      </c>
-      <c r="D43">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E43">
-        <v>0.82599999999999996</v>
       </c>
       <c r="F43">
         <v>0.67200000000000004</v>
@@ -2121,25 +2617,37 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="H43">
+        <v>-1</v>
+      </c>
+      <c r="I43">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>0.95</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>40</v>
       </c>
@@ -2147,13 +2655,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C44">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D44">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E44">
         <v>1</v>
-      </c>
-      <c r="D44">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E44">
-        <v>0.82599999999999996</v>
       </c>
       <c r="F44">
         <v>0.67200000000000004</v>
@@ -2162,25 +2670,37 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="H44">
+        <v>-2</v>
+      </c>
+      <c r="I44">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
         <v>0.95</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" s="3">
         <v>0.93899999999999995</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>0.94299999999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>41</v>
       </c>
@@ -2188,13 +2708,13 @@
         <v>4.2</v>
       </c>
       <c r="C45">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D45">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E45">
         <v>1</v>
-      </c>
-      <c r="D45">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E45">
-        <v>0.82599999999999996</v>
       </c>
       <c r="F45">
         <v>0.67200000000000004</v>
@@ -2203,25 +2723,37 @@
         <v>0.70899999999999996</v>
       </c>
       <c r="H45">
+        <v>-2</v>
+      </c>
+      <c r="I45">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3">
         <v>0.95</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L45">
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
         <v>0.89400000000000002</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>0.90100000000000002</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>42</v>
       </c>
@@ -2229,40 +2761,52 @@
         <v>4.3</v>
       </c>
       <c r="C46">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="D46">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="D46">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="E46">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="F46">
         <v>0.67300000000000004</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46">
         <v>0.71</v>
       </c>
       <c r="H46">
+        <v>-3</v>
+      </c>
+      <c r="I46">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>0.92700000000000005</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3">
         <v>0.95</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L46">
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
         <v>0.89400000000000002</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>0.90100000000000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43</v>
       </c>
@@ -2270,40 +2814,52 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="D47">
-        <v>0.72099999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="E47">
-        <v>0.75</v>
-      </c>
-      <c r="F47" s="4">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>0.67300000000000004</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47">
         <v>0.71</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47">
+        <v>-3</v>
+      </c>
+      <c r="I47" s="3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47" s="3">
         <v>0.95</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L47">
+      <c r="N47">
+        <v>2</v>
+      </c>
+      <c r="O47">
         <v>0.89400000000000002</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>0.90100000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44</v>
       </c>
@@ -2311,40 +2867,52 @@
         <v>4.5</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="D48">
-        <v>0.72099999999999997</v>
+        <v>0.75</v>
       </c>
       <c r="E48">
-        <v>0.75</v>
-      </c>
-      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>0.67300000000000004</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48">
         <v>0.71</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48">
+        <v>-3</v>
+      </c>
+      <c r="I48" s="3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48" s="3">
         <v>0.95</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L48">
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
         <v>0.89400000000000002</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>0.90100000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>45</v>
       </c>
@@ -2352,40 +2920,52 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="C49">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D49">
+        <v>0.75</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="G49">
+        <v>0.71</v>
+      </c>
+      <c r="H49">
+        <v>-3</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="P49">
+        <v>0.9</v>
+      </c>
+      <c r="Q49">
         <v>1</v>
       </c>
-      <c r="D49">
-        <v>0.72099999999999997</v>
-      </c>
-      <c r="E49">
-        <v>0.75</v>
-      </c>
-      <c r="F49" s="4">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.71</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="L49">
-        <v>0.89300000000000002</v>
-      </c>
-      <c r="M49">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>46</v>
       </c>
@@ -2393,13 +2973,13 @@
         <v>4.7</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="D50">
-        <v>0.625</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E50">
-        <v>0.67700000000000005</v>
+        <v>-2</v>
       </c>
       <c r="F50">
         <v>0.54700000000000004</v>
@@ -2407,26 +2987,38 @@
       <c r="G50">
         <v>0.61699999999999999</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50">
+        <v>-5</v>
+      </c>
+      <c r="I50" s="3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J50" s="3">
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50" s="3">
         <v>0.95</v>
       </c>
-      <c r="K50" s="3">
+      <c r="M50" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L50">
+      <c r="N50">
+        <v>2</v>
+      </c>
+      <c r="O50">
         <v>0.89300000000000002</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>47</v>
       </c>
@@ -2434,13 +3026,13 @@
         <v>4.8</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="D51">
-        <v>0.625</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="E51">
-        <v>0.67700000000000005</v>
+        <v>-2</v>
       </c>
       <c r="F51">
         <v>0.54700000000000004</v>
@@ -2448,26 +3040,38 @@
       <c r="G51">
         <v>0.61699999999999999</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51">
+        <v>-5</v>
+      </c>
+      <c r="I51" s="3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J51" s="3">
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51" s="3">
         <v>0.95</v>
       </c>
-      <c r="K51" s="3">
+      <c r="M51" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L51">
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51">
         <v>0.747</v>
       </c>
-      <c r="M51">
+      <c r="P51">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>48</v>
       </c>
@@ -2475,13 +3079,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D52">
-        <v>0.60399999999999998</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="E52">
-        <v>0.66200000000000003</v>
+        <v>-3</v>
       </c>
       <c r="F52">
         <v>0.40100000000000002</v>
@@ -2489,26 +3093,38 @@
       <c r="G52">
         <v>0.51700000000000002</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52">
+        <v>-6</v>
+      </c>
+      <c r="I52" s="3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52" s="3">
         <v>0.95</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L52">
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52">
         <v>0.747</v>
       </c>
-      <c r="M52">
+      <c r="P52">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>49</v>
       </c>
@@ -2516,13 +3132,13 @@
         <v>5</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D53">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E53">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F53">
         <v>0.40100000000000002</v>
@@ -2530,26 +3146,38 @@
       <c r="G53">
         <v>0.51700000000000002</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53">
+        <v>-6</v>
+      </c>
+      <c r="I53" s="3">
         <v>0.92400000000000004</v>
       </c>
-      <c r="I53" s="3">
+      <c r="J53" s="3">
         <v>0.92900000000000005</v>
       </c>
-      <c r="J53" s="3">
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53" s="3">
         <v>0.95</v>
       </c>
-      <c r="K53" s="3">
+      <c r="M53" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L53">
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
         <v>0.747</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>50</v>
       </c>
@@ -2557,13 +3185,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D54">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E54">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F54">
         <v>0.29199999999999998</v>
@@ -2572,25 +3200,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H54">
+        <v>-7</v>
+      </c>
+      <c r="I54">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>0.95</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L54">
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
         <v>0.747</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>0.77600000000000002</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>51</v>
       </c>
@@ -2598,13 +3238,13 @@
         <v>5.2</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D55">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E55">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F55">
         <v>0.29199999999999998</v>
@@ -2613,25 +3253,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H55">
+        <v>-7</v>
+      </c>
+      <c r="I55">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J55" s="3">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
         <v>0.95</v>
       </c>
-      <c r="K55" s="3">
+      <c r="M55" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L55">
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
         <v>0.71399999999999997</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>52</v>
       </c>
@@ -2639,13 +3291,13 @@
         <v>5.3</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D56">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E56">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F56">
         <v>0.29199999999999998</v>
@@ -2654,25 +3306,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H56">
+        <v>-7</v>
+      </c>
+      <c r="I56">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J56" s="3">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
         <v>0.95</v>
       </c>
-      <c r="K56" s="3">
+      <c r="M56" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L56">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
         <v>0.71399999999999997</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q56">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>53</v>
       </c>
@@ -2680,13 +3344,13 @@
         <v>5.4</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D57">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E57">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F57">
         <v>0.29199999999999998</v>
@@ -2695,25 +3359,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H57">
+        <v>-7</v>
+      </c>
+      <c r="I57">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>0.95</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L57">
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
         <v>0.71399999999999997</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q57">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>54</v>
       </c>
@@ -2721,13 +3397,13 @@
         <v>5.5</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D58">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E58">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F58">
         <v>0.29199999999999998</v>
@@ -2736,25 +3412,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H58">
+        <v>-7</v>
+      </c>
+      <c r="I58">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>0.95</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L58">
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
         <v>0.71399999999999997</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q58">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>55</v>
       </c>
@@ -2762,13 +3450,13 @@
         <v>5.6</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D59">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E59">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F59">
         <v>0.29199999999999998</v>
@@ -2777,25 +3465,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H59">
+        <v>-7</v>
+      </c>
+      <c r="I59">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
         <v>0.95</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>0.95299999999999996</v>
       </c>
-      <c r="L59">
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
         <v>0.71399999999999997</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>56</v>
       </c>
@@ -2803,13 +3503,13 @@
         <v>5.7</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D60">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E60">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F60">
         <v>0.29199999999999998</v>
@@ -2818,25 +3518,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H60">
+        <v>-7</v>
+      </c>
+      <c r="I60">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J60">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>0.91</v>
       </c>
-      <c r="L60">
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
         <v>0.71399999999999997</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>57</v>
       </c>
@@ -2844,13 +3556,13 @@
         <v>5.8</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D61">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E61">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F61">
         <v>0.29199999999999998</v>
@@ -2859,25 +3571,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H61">
+        <v>-7</v>
+      </c>
+      <c r="I61">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J61">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>0.91</v>
       </c>
-      <c r="L61">
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
         <v>0.71499999999999997</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q61">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>58</v>
       </c>
@@ -2885,13 +3609,13 @@
         <v>5.9</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D62">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E62">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F62">
         <v>0.29199999999999998</v>
@@ -2900,25 +3624,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H62">
+        <v>-7</v>
+      </c>
+      <c r="I62">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J62">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>0.91</v>
       </c>
-      <c r="L62">
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
         <v>0.71499999999999997</v>
       </c>
-      <c r="M62">
+      <c r="P62">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q62">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>59</v>
       </c>
@@ -2926,13 +3662,13 @@
         <v>6</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D63">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E63">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F63">
         <v>0.29199999999999998</v>
@@ -2941,25 +3677,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H63">
+        <v>-7</v>
+      </c>
+      <c r="I63">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J63">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>0.91</v>
       </c>
-      <c r="L63">
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
         <v>0.71499999999999997</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q63">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>60</v>
       </c>
@@ -2967,13 +3715,13 @@
         <v>6.1</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D64">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E64">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F64">
         <v>0.29199999999999998</v>
@@ -2982,25 +3730,37 @@
         <v>0.45900000000000002</v>
       </c>
       <c r="H64">
+        <v>-7</v>
+      </c>
+      <c r="I64">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J64">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>0.91</v>
       </c>
-      <c r="L64">
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
         <v>0.71499999999999997</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q64">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>61</v>
       </c>
@@ -3008,13 +3768,13 @@
         <v>6.2</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D65">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E65">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F65">
         <v>0.28599999999999998</v>
@@ -3023,25 +3783,37 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="H65">
+        <v>-8</v>
+      </c>
+      <c r="I65">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J65">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>0.91</v>
       </c>
-      <c r="L65">
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
         <v>0.71499999999999997</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q65">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>62</v>
       </c>
@@ -3049,13 +3821,13 @@
         <v>6.3</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D66">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E66">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F66">
         <v>0.28599999999999998</v>
@@ -3064,25 +3836,37 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="H66">
+        <v>-8</v>
+      </c>
+      <c r="I66">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J66">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>0.91</v>
       </c>
-      <c r="L66">
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
         <v>0.71499999999999997</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>0.751</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q66">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>63</v>
       </c>
@@ -3090,13 +3874,13 @@
         <v>6.4</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D67">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E67">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F67">
         <v>0.28599999999999998</v>
@@ -3105,25 +3889,37 @@
         <v>0.45500000000000002</v>
       </c>
       <c r="H67">
+        <v>-8</v>
+      </c>
+      <c r="I67">
         <v>0.88300000000000001</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.89100000000000001</v>
       </c>
-      <c r="J67">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>0.91</v>
       </c>
-      <c r="L67">
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
         <v>0.7</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q67">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>64</v>
       </c>
@@ -3131,13 +3927,13 @@
         <v>6.5</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D68">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E68">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F68">
         <v>0.193</v>
@@ -3146,25 +3942,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H68">
+        <v>-9</v>
+      </c>
+      <c r="I68">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J68">
+      <c r="K68">
+        <v>-1</v>
+      </c>
+      <c r="L68">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>0.91</v>
       </c>
-      <c r="L68">
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
         <v>0.65500000000000003</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>0.70699999999999996</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q68">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>65</v>
       </c>
@@ -3172,13 +3980,13 @@
         <v>6.6</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D69">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E69">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F69">
         <v>0.193</v>
@@ -3187,25 +3995,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H69">
+        <v>-9</v>
+      </c>
+      <c r="I69">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J69">
+      <c r="K69">
+        <v>-1</v>
+      </c>
+      <c r="L69">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>0.91</v>
       </c>
-      <c r="L69">
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
         <v>0.65500000000000003</v>
       </c>
-      <c r="M69">
+      <c r="P69">
         <v>0.70699999999999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q69">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>66</v>
       </c>
@@ -3213,13 +4033,13 @@
         <v>6.7</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D70">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E70">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F70">
         <v>0.193</v>
@@ -3228,25 +4048,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H70">
+        <v>-9</v>
+      </c>
+      <c r="I70">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J70">
+      <c r="K70">
+        <v>-1</v>
+      </c>
+      <c r="L70">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>0.91</v>
       </c>
-      <c r="L70">
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
         <v>0.65500000000000003</v>
       </c>
-      <c r="M70">
+      <c r="P70">
         <v>0.70699999999999996</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q70">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>67</v>
       </c>
@@ -3254,13 +4086,13 @@
         <v>6.8</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D71">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E71">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F71">
         <v>0.193</v>
@@ -3269,25 +4101,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H71">
+        <v>-9</v>
+      </c>
+      <c r="I71">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J71">
+      <c r="K71">
+        <v>-1</v>
+      </c>
+      <c r="L71">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>0.91</v>
       </c>
-      <c r="L71">
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
         <v>0.65500000000000003</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>0.70699999999999996</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q71">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>68</v>
       </c>
@@ -3295,13 +4139,13 @@
         <v>6.9</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D72">
-        <v>0.56499999999999995</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="E72">
-        <v>0.63300000000000001</v>
+        <v>-4</v>
       </c>
       <c r="F72">
         <v>0.193</v>
@@ -3310,25 +4154,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H72">
+        <v>-9</v>
+      </c>
+      <c r="I72">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J72">
+      <c r="K72">
+        <v>-1</v>
+      </c>
+      <c r="L72">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>0.91</v>
       </c>
-      <c r="L72">
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
         <v>0.65500000000000003</v>
       </c>
-      <c r="M72">
+      <c r="P72">
         <v>0.70699999999999996</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q72">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>69</v>
       </c>
@@ -3336,13 +4192,13 @@
         <v>7</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D73">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E73">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F73">
         <v>0.193</v>
@@ -3351,25 +4207,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H73">
+        <v>-9</v>
+      </c>
+      <c r="I73">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J73">
+      <c r="K73">
+        <v>-1</v>
+      </c>
+      <c r="L73">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>0.91</v>
       </c>
-      <c r="L73">
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q73">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>70</v>
       </c>
@@ -3377,13 +4245,13 @@
         <v>7.1</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D74">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E74">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F74">
         <v>0.193</v>
@@ -3392,25 +4260,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H74">
+        <v>-9</v>
+      </c>
+      <c r="I74">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J74">
+      <c r="K74">
+        <v>-1</v>
+      </c>
+      <c r="L74">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>0.91</v>
       </c>
-      <c r="L74">
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M74">
+      <c r="P74">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q74">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>71</v>
       </c>
@@ -3418,13 +4298,13 @@
         <v>7.2</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D75">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E75">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F75">
         <v>0.193</v>
@@ -3433,25 +4313,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H75">
+        <v>-9</v>
+      </c>
+      <c r="I75">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J75">
+      <c r="K75">
+        <v>-1</v>
+      </c>
+      <c r="L75">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>0.91</v>
       </c>
-      <c r="L75">
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M75">
+      <c r="P75">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q75">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>72</v>
       </c>
@@ -3459,13 +4351,13 @@
         <v>7.3</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D76">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E76">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F76">
         <v>0.193</v>
@@ -3474,25 +4366,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H76">
+        <v>-9</v>
+      </c>
+      <c r="I76">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J76">
+      <c r="K76">
+        <v>-1</v>
+      </c>
+      <c r="L76">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>0.91</v>
       </c>
-      <c r="L76">
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M76">
+      <c r="P76">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q76">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>73</v>
       </c>
@@ -3500,13 +4404,13 @@
         <v>7.4</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D77">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E77">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F77">
         <v>0.193</v>
@@ -3515,25 +4419,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H77">
+        <v>-9</v>
+      </c>
+      <c r="I77">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J77">
+      <c r="K77">
+        <v>-1</v>
+      </c>
+      <c r="L77">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>0.91</v>
       </c>
-      <c r="L77">
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M77">
+      <c r="P77">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q77">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>74</v>
       </c>
@@ -3541,13 +4457,13 @@
         <v>7.5</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D78">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E78">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F78">
         <v>0.193</v>
@@ -3556,25 +4472,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H78">
+        <v>-9</v>
+      </c>
+      <c r="I78">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J78">
+      <c r="K78">
+        <v>-1</v>
+      </c>
+      <c r="L78">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>0.91</v>
       </c>
-      <c r="L78">
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
         <v>0.56499999999999995</v>
       </c>
-      <c r="M78">
+      <c r="P78">
         <v>0.64100000000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q78">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>75</v>
       </c>
@@ -3582,13 +4510,13 @@
         <v>7.6</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D79">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E79">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F79">
         <v>0.193</v>
@@ -3597,25 +4525,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H79">
+        <v>-9</v>
+      </c>
+      <c r="I79">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J79">
+      <c r="K79">
+        <v>-1</v>
+      </c>
+      <c r="L79">
         <v>0.90400000000000003</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>0.91</v>
       </c>
-      <c r="L79">
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
         <v>0.51900000000000002</v>
       </c>
-      <c r="M79">
+      <c r="P79">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q79">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>76</v>
       </c>
@@ -3623,13 +4563,13 @@
         <v>7.7</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D80">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E80">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F80">
         <v>0.193</v>
@@ -3638,25 +4578,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H80">
+        <v>-9</v>
+      </c>
+      <c r="I80">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J80">
+      <c r="K80">
+        <v>-1</v>
+      </c>
+      <c r="L80">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>0.89100000000000001</v>
       </c>
-      <c r="L80">
+      <c r="N80">
+        <v>-1</v>
+      </c>
+      <c r="O80">
         <v>0.51900000000000002</v>
       </c>
-      <c r="M80">
+      <c r="P80">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q80">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>77</v>
       </c>
@@ -3664,13 +4616,13 @@
         <v>7.8</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D81">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E81">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F81">
         <v>0.193</v>
@@ -3679,25 +4631,37 @@
         <v>0.39300000000000002</v>
       </c>
       <c r="H81">
+        <v>-9</v>
+      </c>
+      <c r="I81">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J81">
+      <c r="K81">
+        <v>-1</v>
+      </c>
+      <c r="L81">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>0.89100000000000001</v>
       </c>
-      <c r="L81">
+      <c r="N81">
+        <v>-1</v>
+      </c>
+      <c r="O81">
         <v>0.51900000000000002</v>
       </c>
-      <c r="M81">
+      <c r="P81">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q81">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>78</v>
       </c>
@@ -3705,13 +4669,13 @@
         <v>7.9</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D82">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E82">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F82">
         <v>0.121</v>
@@ -3720,25 +4684,37 @@
         <v>0.34300000000000003</v>
       </c>
       <c r="H82">
+        <v>-10</v>
+      </c>
+      <c r="I82">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J82">
+      <c r="K82">
+        <v>-1</v>
+      </c>
+      <c r="L82">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K82">
+      <c r="M82">
         <v>0.89100000000000001</v>
       </c>
-      <c r="L82">
+      <c r="N82">
+        <v>-1</v>
+      </c>
+      <c r="O82">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M82">
+      <c r="P82">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q82">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>79</v>
       </c>
@@ -3746,13 +4722,13 @@
         <v>8</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D83">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E83">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F83">
         <v>9.1999999999999998E-2</v>
@@ -3761,25 +4737,37 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="H83">
+        <v>-11</v>
+      </c>
+      <c r="I83">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J83">
+      <c r="K83">
+        <v>-1</v>
+      </c>
+      <c r="L83">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>0.89100000000000001</v>
       </c>
-      <c r="L83">
+      <c r="N83">
+        <v>-1</v>
+      </c>
+      <c r="O83">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M83">
+      <c r="P83">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q83">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>80</v>
       </c>
@@ -3787,13 +4775,13 @@
         <v>8.1</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D84">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E84">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F84">
         <v>0.09</v>
@@ -3802,25 +4790,37 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="H84">
+        <v>-12</v>
+      </c>
+      <c r="I84">
         <v>0.84699999999999998</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>0.85799999999999998</v>
       </c>
-      <c r="J84">
+      <c r="K84">
+        <v>-1</v>
+      </c>
+      <c r="L84">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>0.89100000000000001</v>
       </c>
-      <c r="L84">
+      <c r="N84">
+        <v>-1</v>
+      </c>
+      <c r="O84">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M84">
+      <c r="P84">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q84">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>81</v>
       </c>
@@ -3828,13 +4828,13 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D85">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E85">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F85">
         <v>0.09</v>
@@ -3843,25 +4843,37 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="H85">
+        <v>-12</v>
+      </c>
+      <c r="I85">
         <v>0.78</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>0.80200000000000005</v>
       </c>
-      <c r="J85">
+      <c r="K85">
+        <v>-2</v>
+      </c>
+      <c r="L85">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>0.89100000000000001</v>
       </c>
-      <c r="L85">
+      <c r="N85">
+        <v>-1</v>
+      </c>
+      <c r="O85">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M85">
+      <c r="P85">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q85">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>82</v>
       </c>
@@ -3869,13 +4881,13 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D86">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E86">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F86">
         <v>6.6000000000000003E-2</v>
@@ -3884,25 +4896,37 @@
         <v>0.30099999999999999</v>
       </c>
       <c r="H86">
+        <v>-13</v>
+      </c>
+      <c r="I86">
         <v>0.75</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>0.77800000000000002</v>
       </c>
-      <c r="J86">
+      <c r="K86">
+        <v>-3</v>
+      </c>
+      <c r="L86">
         <v>0.88200000000000001</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>0.89100000000000001</v>
       </c>
-      <c r="L86">
+      <c r="N86">
+        <v>-1</v>
+      </c>
+      <c r="O86">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M86">
+      <c r="P86">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q86">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>83</v>
       </c>
@@ -3910,13 +4934,13 @@
         <v>8.4</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D87">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E87">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F87">
         <v>2.8000000000000001E-2</v>
@@ -3925,25 +4949,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H87">
+        <v>-14</v>
+      </c>
+      <c r="I87">
         <v>0.60199999999999998</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>0.66800000000000004</v>
       </c>
-      <c r="J87">
+      <c r="K87">
+        <v>-4</v>
+      </c>
+      <c r="L87">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L87">
+      <c r="N87">
+        <v>-2</v>
+      </c>
+      <c r="O87">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M87">
+      <c r="P87">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q87">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>84</v>
       </c>
@@ -3951,13 +4987,13 @@
         <v>8.5</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0.48</v>
       </c>
       <c r="D88">
-        <v>0.48</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E88">
-        <v>0.57499999999999996</v>
+        <v>-5</v>
       </c>
       <c r="F88">
         <v>2.8000000000000001E-2</v>
@@ -3966,25 +5002,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H88">
+        <v>-14</v>
+      </c>
+      <c r="I88">
         <v>0.60199999999999998</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>0.66800000000000004</v>
       </c>
-      <c r="J88">
+      <c r="K88">
+        <v>-4</v>
+      </c>
+      <c r="L88">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L88">
+      <c r="N88">
+        <v>-2</v>
+      </c>
+      <c r="O88">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M88">
+      <c r="P88">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q88">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>85</v>
       </c>
@@ -3992,13 +5040,13 @@
         <v>8.6</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D89">
-        <v>0.40100000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E89">
-        <v>0.52200000000000002</v>
+        <v>-6</v>
       </c>
       <c r="F89">
         <v>2.8000000000000001E-2</v>
@@ -4007,25 +5055,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H89">
+        <v>-14</v>
+      </c>
+      <c r="I89">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>0.63900000000000001</v>
       </c>
-      <c r="J89">
+      <c r="K89">
+        <v>-5</v>
+      </c>
+      <c r="L89">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L89">
+      <c r="N89">
+        <v>-2</v>
+      </c>
+      <c r="O89">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M89">
+      <c r="P89">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q89">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>86</v>
       </c>
@@ -4033,13 +5093,13 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D90">
-        <v>0.40100000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E90">
-        <v>0.52200000000000002</v>
+        <v>-6</v>
       </c>
       <c r="F90">
         <v>2.8000000000000001E-2</v>
@@ -4048,25 +5108,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H90">
+        <v>-14</v>
+      </c>
+      <c r="I90">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>0.63900000000000001</v>
       </c>
-      <c r="J90">
+      <c r="K90">
+        <v>-5</v>
+      </c>
+      <c r="L90">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L90">
+      <c r="N90">
+        <v>-2</v>
+      </c>
+      <c r="O90">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M90">
+      <c r="P90">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q90">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>87</v>
       </c>
@@ -4074,13 +5146,13 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D91">
-        <v>0.40100000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E91">
-        <v>0.52200000000000002</v>
+        <v>-6</v>
       </c>
       <c r="F91">
         <v>2.8000000000000001E-2</v>
@@ -4089,25 +5161,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H91">
+        <v>-14</v>
+      </c>
+      <c r="I91">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>0.63900000000000001</v>
       </c>
-      <c r="J91">
+      <c r="K91">
+        <v>-5</v>
+      </c>
+      <c r="L91">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L91">
+      <c r="N91">
+        <v>-2</v>
+      </c>
+      <c r="O91">
         <v>0.45900000000000002</v>
       </c>
-      <c r="M91">
+      <c r="P91">
         <v>0.57099999999999995</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q91">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>88</v>
       </c>
@@ -4115,13 +5199,13 @@
         <v>8.9</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="D92">
-        <v>0.40100000000000002</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="E92">
-        <v>0.52200000000000002</v>
+        <v>-6</v>
       </c>
       <c r="F92">
         <v>2.8000000000000001E-2</v>
@@ -4130,25 +5214,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H92">
+        <v>-14</v>
+      </c>
+      <c r="I92">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>0.63900000000000001</v>
       </c>
-      <c r="J92">
+      <c r="K92">
+        <v>-5</v>
+      </c>
+      <c r="L92">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L92">
+      <c r="N92">
+        <v>-2</v>
+      </c>
+      <c r="O92">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M92">
+      <c r="P92">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q92">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>89</v>
       </c>
@@ -4156,13 +5252,13 @@
         <v>9</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D93">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E93">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F93">
         <v>2.8000000000000001E-2</v>
@@ -4171,25 +5267,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H93">
+        <v>-14</v>
+      </c>
+      <c r="I93">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>0.63900000000000001</v>
       </c>
-      <c r="J93">
+      <c r="K93">
+        <v>-5</v>
+      </c>
+      <c r="L93">
         <v>0.82399999999999995</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>0.84099999999999997</v>
       </c>
-      <c r="L93">
+      <c r="N93">
+        <v>-2</v>
+      </c>
+      <c r="O93">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M93">
+      <c r="P93">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q93">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>90</v>
       </c>
@@ -4197,13 +5305,13 @@
         <v>9.1</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D94">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E94">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F94">
         <v>2.8000000000000001E-2</v>
@@ -4212,25 +5320,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H94">
+        <v>-14</v>
+      </c>
+      <c r="I94">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>0.63900000000000001</v>
       </c>
-      <c r="J94">
+      <c r="K94">
+        <v>-5</v>
+      </c>
+      <c r="L94">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L94">
+      <c r="N94">
+        <v>-3</v>
+      </c>
+      <c r="O94">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M94">
+      <c r="P94">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q94">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>91</v>
       </c>
@@ -4238,13 +5358,13 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="C95">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D95">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E95">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F95">
         <v>2.8000000000000001E-2</v>
@@ -4253,25 +5373,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H95">
+        <v>-14</v>
+      </c>
+      <c r="I95">
         <v>0.56100000000000005</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>0.63900000000000001</v>
       </c>
-      <c r="J95">
+      <c r="K95">
+        <v>-5</v>
+      </c>
+      <c r="L95">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K95">
+      <c r="M95">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L95">
+      <c r="N95">
+        <v>-3</v>
+      </c>
+      <c r="O95">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M95">
+      <c r="P95">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q95">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>92</v>
       </c>
@@ -4279,13 +5411,13 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D96">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E96">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F96">
         <v>2.8000000000000001E-2</v>
@@ -4294,25 +5426,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H96">
+        <v>-14</v>
+      </c>
+      <c r="I96">
         <v>0.47299999999999998</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>0.57799999999999996</v>
       </c>
-      <c r="J96">
+      <c r="K96">
+        <v>-6</v>
+      </c>
+      <c r="L96">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K96">
+      <c r="M96">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L96">
+      <c r="N96">
+        <v>-3</v>
+      </c>
+      <c r="O96">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M96">
+      <c r="P96">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q96">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>93</v>
       </c>
@@ -4320,13 +5464,13 @@
         <v>9.4</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D97">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E97">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F97">
         <v>2.8000000000000001E-2</v>
@@ -4335,25 +5479,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H97">
+        <v>-14</v>
+      </c>
+      <c r="I97">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>0.46100000000000002</v>
       </c>
-      <c r="J97">
+      <c r="K97">
+        <v>-7</v>
+      </c>
+      <c r="L97">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K97">
+      <c r="M97">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L97">
+      <c r="N97">
+        <v>-3</v>
+      </c>
+      <c r="O97">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M97">
+      <c r="P97">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q97">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>94</v>
       </c>
@@ -4361,13 +5517,13 @@
         <v>9.5</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D98">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E98">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F98">
         <v>2.8000000000000001E-2</v>
@@ -4376,25 +5532,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H98">
+        <v>-14</v>
+      </c>
+      <c r="I98">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>0.46100000000000002</v>
       </c>
-      <c r="J98">
+      <c r="K98">
+        <v>-7</v>
+      </c>
+      <c r="L98">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K98">
+      <c r="M98">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L98">
+      <c r="N98">
+        <v>-3</v>
+      </c>
+      <c r="O98">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M98">
+      <c r="P98">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q98">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>95</v>
       </c>
@@ -4402,13 +5570,13 @@
         <v>9.6</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D99">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E99">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F99">
         <v>2.8000000000000001E-2</v>
@@ -4417,25 +5585,37 @@
         <v>0.27100000000000002</v>
       </c>
       <c r="H99">
+        <v>-14</v>
+      </c>
+      <c r="I99">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>0.46100000000000002</v>
       </c>
-      <c r="J99">
+      <c r="K99">
+        <v>-7</v>
+      </c>
+      <c r="L99">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K99">
+      <c r="M99">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L99">
+      <c r="N99">
+        <v>-3</v>
+      </c>
+      <c r="O99">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M99">
+      <c r="P99">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q99">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>96</v>
       </c>
@@ -4443,13 +5623,13 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D100">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E100">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F100">
         <v>1.2999999999999999E-2</v>
@@ -4458,25 +5638,37 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="H100">
+        <v>-15</v>
+      </c>
+      <c r="I100">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>0.46100000000000002</v>
       </c>
-      <c r="J100">
+      <c r="K100">
+        <v>-7</v>
+      </c>
+      <c r="L100">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K100">
+      <c r="M100">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L100">
+      <c r="N100">
+        <v>-3</v>
+      </c>
+      <c r="O100">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M100">
+      <c r="P100">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q100">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>97</v>
       </c>
@@ -4484,13 +5676,13 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D101">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E101">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F101">
         <v>1.2999999999999999E-2</v>
@@ -4499,25 +5691,37 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="H101">
+        <v>-15</v>
+      </c>
+      <c r="I101">
         <v>0.29499999999999998</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>0.46100000000000002</v>
       </c>
-      <c r="J101">
+      <c r="K101">
+        <v>-7</v>
+      </c>
+      <c r="L101">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K101">
+      <c r="M101">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L101">
+      <c r="N101">
+        <v>-3</v>
+      </c>
+      <c r="O101">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M101">
+      <c r="P101">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q101">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>98</v>
       </c>
@@ -4525,13 +5729,13 @@
         <v>9.9</v>
       </c>
       <c r="C102">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D102">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E102">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F102">
         <v>1.2999999999999999E-2</v>
@@ -4540,25 +5744,37 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="H102">
+        <v>-15</v>
+      </c>
+      <c r="I102">
         <v>0.2</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>0.39900000000000002</v>
       </c>
-      <c r="J102">
+      <c r="K102">
+        <v>-8</v>
+      </c>
+      <c r="L102">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K102">
+      <c r="M102">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L102">
+      <c r="N102">
+        <v>-3</v>
+      </c>
+      <c r="O102">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M102">
+      <c r="P102">
         <v>0.53</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="Q102">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>99</v>
       </c>
@@ -4566,13 +5782,13 @@
         <v>10</v>
       </c>
       <c r="C103">
-        <v>1</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="D103">
-        <v>0.24199999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="E103">
-        <v>0.41699999999999998</v>
+        <v>-7</v>
       </c>
       <c r="F103">
         <v>1.2999999999999999E-2</v>
@@ -4581,33 +5797,45 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="H103">
+        <v>-15</v>
+      </c>
+      <c r="I103">
         <v>0.2</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>0.39900000000000002</v>
       </c>
-      <c r="J103">
+      <c r="K103">
+        <v>-8</v>
+      </c>
+      <c r="L103">
         <v>0.74099999999999999</v>
       </c>
-      <c r="K103">
+      <c r="M103">
         <v>0.77600000000000002</v>
       </c>
-      <c r="L103">
+      <c r="N103">
+        <v>-3</v>
+      </c>
+      <c r="O103">
         <v>0.39800000000000002</v>
       </c>
-      <c r="M103">
+      <c r="P103">
         <v>0.53</v>
       </c>
+      <c r="Q103">
+        <v>-8</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
+  <mergeCells count="5">
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>